--- a/data/trans_dic/P24_8_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P24_8_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sensación de opresión en el pecho con bastante o mucha frecuencia</t>
+          <t>Población con sensación de opresión en el pecho con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>9,8%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>8,64%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>13,25%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>16,97%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 13,26</t>
+          <t>0,0; 12,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 9,06</t>
+          <t>0,0; 15,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 11,26</t>
+          <t>0,0; 12,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 9,03</t>
+          <t>1,69; 18,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,28; 18,48</t>
+          <t>4,06; 30,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 20,89</t>
+          <t>6,72; 28,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,37; 19,73</t>
+          <t>5,76; 29,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,41; 18,9</t>
+          <t>6,73; 25,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,73; 14,04</t>
+          <t>8,7; 31,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,46; 13,54</t>
+          <t>7,22; 32,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,53; 13,23</t>
+          <t>4,45; 17,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,1; 13,05</t>
+          <t>4,39; 19,05</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4,02; 15,54</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>6,63; 22,06</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>8,87; 27,16</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>10,61%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>10,39%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>9,11%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,02; 19,76</t>
+          <t>3,26; 25,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,2; 7,27</t>
+          <t>1,94; 8,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 7,19</t>
+          <t>1,6; 8,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,25; 7,22</t>
+          <t>2,41; 9,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,65; 17,61</t>
+          <t>1,46; 8,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,33; 16,38</t>
+          <t>10,81; 22,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,0; 15,45</t>
+          <t>11,51; 22,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,34; 16,66</t>
+          <t>8,65; 18,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,15; 16,99</t>
+          <t>11,19; 22,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,97; 10,53</t>
+          <t>9,74; 20,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,78; 10,37</t>
+          <t>8,88; 19,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,31; 10,75</t>
+          <t>7,71; 14,43</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 11,63</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>7,32; 14,27</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>6,26; 12,52</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6,78%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>6,75%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>6,48%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 8,27</t>
+          <t>1,02; 9,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 9,21</t>
+          <t>1,95; 10,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 7,12</t>
+          <t>0,88; 9,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 13,05</t>
+          <t>0,72; 15,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,16; 15,36</t>
+          <t>0,61; 7,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 11,23</t>
+          <t>6,51; 15,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,36; 15,03</t>
+          <t>3,39; 11,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 14,33</t>
+          <t>5,5; 14,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,46; 10,34</t>
+          <t>4,73; 13,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 9,01</t>
+          <t>5,89; 15,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,37; 10,24</t>
+          <t>5,0; 11,1</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,66; 11,2</t>
+          <t>3,51; 9,23</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4,32; 10,06</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4,19; 11,87</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,97; 9,84</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 13,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 6,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,82; 14,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,57; 13,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,76; 13,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,29; 14,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,31; 12,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,13; 9,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,54; 9,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,79; 10,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,4%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,75%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,62%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,13%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13,61%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11,92%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11,63%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13,59%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13,63%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10,25%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8,6%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>7,81%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>9,45%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>9,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,14; 14,57</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,79; 7,61</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,96; 6,3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 9,13</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 8,52</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10,44; 17,29</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9,09; 15,19</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8,66; 15,2</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>10,23; 17,49</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>10,45; 18,04</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7,91; 14,37</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6,7; 11,21</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 10,09</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>7,53; 12,16</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>7,45; 12,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con sensación de opresión en el pecho con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2445</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6078</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2679</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>8583</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>27683</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18161</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20514</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>16105</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>22755</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>38790</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>20606</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>26591</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>18783</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>31338</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>66473</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13083</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20352</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13078</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1931; 20836</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7208; 54593</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7917; 33195</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8209; 41317</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7537; 28960</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10652; 38153</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>15446; 68595</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9831; 38622</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11916; 51701</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>8744; 33794</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>15678; 52178</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>34718; 106354</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>35152</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>19567</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14916</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>18972</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>20070</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>62137</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>75059</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>48705</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>61335</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>72034</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>97289</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>94625</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>63621</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>80307</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>92104</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11934; 94984</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8351; 36734</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6037; 31003</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9612; 36743</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7565; 44424</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>42228; 88608</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>53253; 103099</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>32806; 69236</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>41754; 83159</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>48169; 102195</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>67168; 150922</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>68795; 128719</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>43307; 87889</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>56566; 110229</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>63277; 126626</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10722</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16684</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10060</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12943</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8629</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>37805</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27583</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>32445</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>27729</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>40170</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>48527</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>44267</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>42505</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>40671</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>48798</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2914; 26354</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6492; 34596</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2475; 27041</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1981; 42412</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2164; 26969</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>23402; 57063</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14521; 49675</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18949; 51019</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15489; 42658</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>23532; 62441</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>32292; 71655</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>26699; 70279</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>27060; 63080</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>25233; 71543</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>29886; 74110</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>48320</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>42328</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>27655</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>40498</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>56381</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>118103</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>123155</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>97255</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>111818</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>150994</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>166423</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>165484</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>124910</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>152316</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>207375</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>23696; 110020</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>24869; 67867</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>14947; 48134</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>22700; 72028</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>31009; 89241</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>90618; 150095</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>93942; 156984</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>72401; 127029</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>84165; 143964</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>115823; 199966</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>128357; 233311</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>128998; 215833</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>98369; 161414</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>121352; 196027</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>160603; 269455</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
